--- a/backend/demo.xlsx
+++ b/backend/demo.xlsx
@@ -293,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,9 +305,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,9 +343,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,33 +671,33 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -689,13 +714,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
@@ -712,13 +737,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
@@ -735,13 +760,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
@@ -758,13 +783,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
@@ -781,13 +806,13 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
@@ -804,13 +829,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
@@ -827,13 +852,13 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
@@ -850,13 +875,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
@@ -873,13 +898,13 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
@@ -896,13 +921,13 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
@@ -919,13 +944,13 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D13" t="s">
@@ -942,13 +967,13 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
@@ -965,13 +990,13 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
@@ -988,13 +1013,13 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
@@ -1011,13 +1036,13 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D17" t="s">
@@ -1034,13 +1059,13 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D18" t="s">
@@ -1057,13 +1082,13 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D19" t="s">
@@ -1080,13 +1105,13 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D20" t="s">
@@ -1103,13 +1128,13 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D21" t="s">
@@ -1126,13 +1151,13 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D22" t="s">
@@ -1149,13 +1174,13 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D23" t="s">
@@ -1172,13 +1197,13 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D24" t="s">
@@ -1195,13 +1220,13 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D25" t="s">
@@ -1218,13 +1243,13 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D26" t="s">
@@ -1241,13 +1266,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D27" t="s">
@@ -1264,13 +1289,13 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D28" t="s">
@@ -1287,13 +1312,13 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D29" t="s">
@@ -1310,13 +1335,13 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>32</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D30" t="s">
@@ -1333,13 +1358,13 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D31" t="s">
@@ -1356,13 +1381,13 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="s">
@@ -1379,13 +1404,13 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D33" t="s">
@@ -1402,13 +1427,13 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>36</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D34" t="s">
@@ -1425,13 +1450,13 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>37</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D35" t="s">
@@ -1448,13 +1473,13 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>38</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D36" t="s">
@@ -1471,13 +1496,13 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>39</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D37" t="s">
@@ -1494,13 +1519,13 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>40</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D38" t="s">
@@ -1517,13 +1542,13 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D39" t="s">
@@ -1540,13 +1565,13 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D40" t="s">
@@ -1563,13 +1588,13 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D41" t="s">
